--- a/sources/Group notes and tasks.xlsx
+++ b/sources/Group notes and tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\Google Drive\HSLU 3rd semester\Deep Learning in Vision\deep_learning_vision\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127CADF5-4062-49D6-84A8-CFD91E2D5714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55326D14-D16F-4E51-9F39-BE71D4F3DF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{8B91B8FC-AFAA-4D36-9C05-4E941B546F04}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Topic</t>
   </si>
@@ -59,18 +59,29 @@
     <t>https://github.com/facebookresearch/detectron2</t>
   </si>
   <si>
-    <t>Object Detection and Instance</t>
-  </si>
-  <si>
-    <t>Segmentation</t>
+    <t>Link from whom?</t>
+  </si>
+  <si>
+    <t>Mirko</t>
+  </si>
+  <si>
+    <t>Object Detection and Instance Segmentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,8 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D01AF0-869A-4275-82BF-064FFC770264}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,26 +439,30 @@
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -454,13 +470,16 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -468,14 +487,13 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
